--- a/branches/master/ValueSet-hiv-case-report-questionnaire_hiv-case-report-questionnaire.xlsx
+++ b/branches/master/ValueSet-hiv-case-report-questionnaire_hiv-case-report-questionnaire.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
